--- a/data/20-08-2025-lookup_types-export.xlsx
+++ b/data/20-08-2025-lookup_types-export.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="383">
   <si>
     <t>Id</t>
   </si>
@@ -67,12 +67,447 @@
     <t>false</t>
   </si>
   <si>
+    <t>3367a4e6-16e0-40d2-b7c9-7f21c96f4dc6</t>
+  </si>
+  <si>
+    <t>BUSINESS_AREA_TYPE</t>
+  </si>
+  <si>
+    <t>National Long Distance</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>Domestic long-distance telecom service.</t>
+  </si>
+  <si>
+    <t>3be43529-ead7-4052-9134-5d7df9d3d800</t>
+  </si>
+  <si>
+    <t>Retail Fixed Line</t>
+  </si>
+  <si>
+    <t>RETAIL</t>
+  </si>
+  <si>
+    <t>Landline and basic voice services.</t>
+  </si>
+  <si>
+    <t>12e0d487-c11c-4432-89f4-3347070046ed</t>
+  </si>
+  <si>
+    <t>Mobile Services</t>
+  </si>
+  <si>
+    <t>MOB</t>
+  </si>
+  <si>
+    <t>BSNL GSM/4G/5G mobile offerings.</t>
+  </si>
+  <si>
+    <t>d7600972-15b4-40e8-959c-56e21df24adf</t>
+  </si>
+  <si>
+    <t>International Long Distance</t>
+  </si>
+  <si>
+    <t>ILD</t>
+  </si>
+  <si>
+    <t>International telecom connectivity.</t>
+  </si>
+  <si>
+    <t>f4747aaa-75f3-4ac0-b950-57569e208189</t>
+  </si>
+  <si>
+    <t>IP Television</t>
+  </si>
+  <si>
+    <t>IPTV</t>
+  </si>
+  <si>
+    <t>Video streaming and IPTV services.</t>
+  </si>
+  <si>
+    <t>7be2cd28-a794-4f98-b2aa-31ea6c1c6edc</t>
+  </si>
+  <si>
+    <t>PORT_TYPES</t>
+  </si>
+  <si>
+    <t>STM-1 Port</t>
+  </si>
+  <si>
+    <t>STM1</t>
+  </si>
+  <si>
+    <t>155 Mbps optical interface in SDH.</t>
+  </si>
+  <si>
+    <t>3e555c07-b3c9-4c38-ba5a-b5a0476edc55</t>
+  </si>
+  <si>
+    <t>MAINTENANCE_AREA_TYPES</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>ZONE</t>
+  </si>
+  <si>
+    <t>The biggest operational region in BSNL.Example: East Zone, South Zone, North Zone, West Zone.Each Zone contains multiple Circles.</t>
+  </si>
+  <si>
+    <t>a786b612-5407-4517-a320-99a210a1ba13</t>
+  </si>
+  <si>
+    <t>SSA (Secondary Switching Area)</t>
+  </si>
+  <si>
+    <t>SSA</t>
+  </si>
+  <si>
+    <t>District-level telecom maintenance unit.Example: Kolkata SSA, Malda SSA.Each SSA contains multiple Divisions/Sub-Divisions.</t>
+  </si>
+  <si>
+    <t>d2d2f881-26d2-4942-8347-7c0d9b9acbbf</t>
+  </si>
+  <si>
+    <t>Sub-Division</t>
+  </si>
+  <si>
+    <t>SUBDIV</t>
+  </si>
+  <si>
+    <t>Smaller operational units inside an DIVISION for field maintenance.</t>
+  </si>
+  <si>
+    <t>14b6413a-2b8a-4afa-a3a7-6d6a6deb7d43</t>
+  </si>
+  <si>
+    <t>Specialized Centers</t>
+  </si>
+  <si>
+    <t>SPECIALIZED</t>
+  </si>
+  <si>
+    <t>parallel structure.Like NOC (Network Operations Center) – Centralized monitoring hub, MSC (Mobile Switching Center) – For mobile network control, TXM Units – Transmission maintenance teams.</t>
+  </si>
+  <si>
+    <t>72c229f6-2919-41cc-b5cc-911779aa9dc3</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>CIRCLE</t>
+  </si>
+  <si>
+    <t>State/UT-level operational unit.Example: West Bengal Circle, Kerala Circle, Tamil Nadu Circle.Each Circle contains multiple SSAs.</t>
+  </si>
+  <si>
+    <t>6ae7c8f8-7272-4a7f-a7c3-0fa2534bb2eb</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>DIV</t>
+  </si>
+  <si>
+    <t>Smaller operational units inside an SSA for field maintenance.Often responsible for a cluster of exchanges or optical routes.</t>
+  </si>
+  <si>
+    <t>e3c44b09-c5d7-457c-8c50-5a06efff1262</t>
+  </si>
+  <si>
+    <t>Unshielded Twisted Pair</t>
+  </si>
+  <si>
+    <t>UTP</t>
+  </si>
+  <si>
+    <t>Copper cable for telecom and data.</t>
+  </si>
+  <si>
+    <t>96a1fb7a-2603-483b-8088-2d95755bda08</t>
+  </si>
+  <si>
+    <t>Microwave Link</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Wireless line-of-sight telecom link.</t>
+  </si>
+  <si>
+    <t>838ed57e-44bf-44dc-907f-e6d8136c8ab2</t>
+  </si>
+  <si>
+    <t>Radio Frequency Link</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>Wireless RF link for telecom.</t>
+  </si>
+  <si>
+    <t>44069fb0-fbe6-4836-ac87-083ab7f44880</t>
+  </si>
+  <si>
+    <t>Optical Fiber</t>
+  </si>
+  <si>
+    <t>FIBER</t>
+  </si>
+  <si>
+    <t>Fiber optic communication medium.</t>
+  </si>
+  <si>
+    <t>0c188ba2-689a-4bdc-9848-3b1112516f6b</t>
+  </si>
+  <si>
+    <t>Satellite Link</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>Satellite-based telecom connection.</t>
+  </si>
+  <si>
+    <t>daef1801-b782-465e-a973-a9e4358e2e92</t>
+  </si>
+  <si>
+    <t>Very High Frequency Link</t>
+  </si>
+  <si>
+    <t>VHF</t>
+  </si>
+  <si>
+    <t>Special frequency-based communication link.</t>
+  </si>
+  <si>
+    <t>a6e36125-cd80-45a1-99f5-ae4b445a6880</t>
+  </si>
+  <si>
+    <t>NODE_TYPES</t>
+  </si>
+  <si>
+    <t>Telephone Exchange (Exch.)</t>
+  </si>
+  <si>
+    <t>EXCH</t>
+  </si>
+  <si>
+    <t>Central switching facility that connects subscriber lines and trunk links.</t>
+  </si>
+  <si>
+    <t>d749692f-5147-49b5-b1cf-8be443ad2de2</t>
+  </si>
+  <si>
+    <t>BTS (running over radiolink)</t>
+  </si>
+  <si>
+    <t>BTS-RL</t>
+  </si>
+  <si>
+    <t>BTS whose backhaul is microwave / radiolink (non-fiber backhaul).</t>
+  </si>
+  <si>
+    <t>6458a347-e80c-4a62-9357-551487a07e3a</t>
+  </si>
+  <si>
+    <t>Customer Premises</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Subscriber location (home/business) — customer termination equipment/site.</t>
+  </si>
+  <si>
+    <t>de9ccacb-2080-400e-8c57-2e2cf729f724</t>
+  </si>
+  <si>
+    <t>Gram Panchayat</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>Rural/local community aggregation point for last-mile access.</t>
+  </si>
+  <si>
+    <t>ad56dd60-f014-464b-84b9-a090ed843fab</t>
+  </si>
+  <si>
+    <t>Backhaul Hub / Block HQ</t>
+  </si>
+  <si>
+    <t>BHQ</t>
+  </si>
+  <si>
+    <t>Aggregation/backhaul hub or branch headquarters for operations &amp; routing.</t>
+  </si>
+  <si>
+    <t>95f63633-fd4e-4018-b2f0-dea8ad3a8494</t>
+  </si>
+  <si>
+    <t>Metro Access Aggregation Node</t>
+  </si>
+  <si>
+    <t>MAAN</t>
+  </si>
+  <si>
+    <t>Aggregation node used in metro rings before reaching core/backbone.</t>
+  </si>
+  <si>
+    <t>04bb13be-c2c6-47dd-a5f3-013f37c08719</t>
+  </si>
+  <si>
+    <t>Fiber Distribution Hub (FDH)</t>
+  </si>
+  <si>
+    <t>FDH</t>
+  </si>
+  <si>
+    <t>Street/field cabinet that distributes fibers to subscribers (PON splitters).</t>
+  </si>
+  <si>
+    <t>96ff54ab-c96f-470e-92d6-2f5780438e81</t>
+  </si>
+  <si>
+    <t>Distribution Point / Street Cabinet</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Local distribution cabinet connecting feeder to drop cables.</t>
+  </si>
+  <si>
+    <t>20062f91-1de9-43a9-aaae-a9eee082d0e2</t>
+  </si>
+  <si>
+    <t>multiplexer</t>
+  </si>
+  <si>
+    <t>MUX</t>
+  </si>
+  <si>
+    <t>Splits a multiplexed signal into its components.</t>
+  </si>
+  <si>
+    <t>5207d6b0-10ff-4c8d-b5e0-0ce9cc2e5230</t>
+  </si>
+  <si>
+    <t>Compact Passive Access Node</t>
+  </si>
+  <si>
+    <t>CPAN Node</t>
+  </si>
+  <si>
+    <t>Compact Passive Access Node (used in access networks for broadband/FTTH aggregation)</t>
+  </si>
+  <si>
+    <t>f6cdce1d-fe11-4d40-8866-c509307f6150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add-Drop Multiplexer </t>
+  </si>
+  <si>
+    <t>ADM Node</t>
+  </si>
+  <si>
+    <t>Intermediate add/drop site</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>c3c10305-215a-4efa-8770-2d8846f4e888</t>
+  </si>
+  <si>
+    <t>Digital Cross-Connect</t>
+  </si>
+  <si>
+    <t>DXC Node</t>
+  </si>
+  <si>
+    <t>Junction site with large cross-connections</t>
+  </si>
+  <si>
+    <t>0966c005-3306-4a7a-9933-45dd1d8e91b4</t>
+  </si>
+  <si>
+    <t>Optical Amplifier Node</t>
+  </si>
+  <si>
+    <t>OAN Node</t>
+  </si>
+  <si>
+    <t>If the SDH shelf is paired with amplifier equipment for boosting signal only.</t>
+  </si>
+  <si>
+    <t>df4fb383-2fcf-4171-9571-0566863778af</t>
+  </si>
+  <si>
+    <t>Regenerator</t>
+  </si>
+  <si>
+    <t>Regenerator Node</t>
+  </si>
+  <si>
+    <t>For old SDH without optical amplification.</t>
+  </si>
+  <si>
+    <t>aad2da41-7496-4048-a004-a6958ec4ff79</t>
+  </si>
+  <si>
+    <t>OFC_TYPES</t>
+  </si>
+  <si>
+    <t>6F Unarmored</t>
+  </si>
+  <si>
+    <t>6F-U</t>
+  </si>
+  <si>
+    <t>Six-core unarmored optical fiber cable (for ducts/aerial).</t>
+  </si>
+  <si>
+    <t>e137552b-9ae2-442b-bcc2-c435d7d64ba1</t>
+  </si>
+  <si>
+    <t>12F Unarmored</t>
+  </si>
+  <si>
+    <t>12F-U</t>
+  </si>
+  <si>
+    <t>Twelve-core unarmored optical fiber cable.</t>
+  </si>
+  <si>
+    <t>f45e7454-2b12-4607-886b-f463b56fab98</t>
+  </si>
+  <si>
+    <t>Base Transceiver Station</t>
+  </si>
+  <si>
+    <t>BTS</t>
+  </si>
+  <si>
+    <t>Mobile radio site / cell tower serving a cell area.</t>
+  </si>
+  <si>
     <t>3e347a50-468a-4006-b0d2-e1ba90f461ea</t>
   </si>
   <si>
-    <t>BUSINESS_AREA_TYPE</t>
-  </si>
-  <si>
     <t>Broadband Services</t>
   </si>
   <si>
@@ -82,30 +517,6 @@
     <t>BSNL FTTH and DSL broadband.</t>
   </si>
   <si>
-    <t>3367a4e6-16e0-40d2-b7c9-7f21c96f4dc6</t>
-  </si>
-  <si>
-    <t>National Long Distance</t>
-  </si>
-  <si>
-    <t>NLD</t>
-  </si>
-  <si>
-    <t>Domestic long-distance telecom service.</t>
-  </si>
-  <si>
-    <t>3be43529-ead7-4052-9134-5d7df9d3d800</t>
-  </si>
-  <si>
-    <t>Retail Fixed Line</t>
-  </si>
-  <si>
-    <t>RETAIL</t>
-  </si>
-  <si>
-    <t>Landline and basic voice services.</t>
-  </si>
-  <si>
     <t>581b175e-98f8-4768-b1be-26c871a8335b</t>
   </si>
   <si>
@@ -118,417 +529,6 @@
     <t>Leased lines, MPLS VPN for corporate customers.</t>
   </si>
   <si>
-    <t>12e0d487-c11c-4432-89f4-3347070046ed</t>
-  </si>
-  <si>
-    <t>Mobile Services</t>
-  </si>
-  <si>
-    <t>MOB</t>
-  </si>
-  <si>
-    <t>BSNL GSM/4G/5G mobile offerings.</t>
-  </si>
-  <si>
-    <t>d7600972-15b4-40e8-959c-56e21df24adf</t>
-  </si>
-  <si>
-    <t>International Long Distance</t>
-  </si>
-  <si>
-    <t>ILD</t>
-  </si>
-  <si>
-    <t>International telecom connectivity.</t>
-  </si>
-  <si>
-    <t>f4747aaa-75f3-4ac0-b950-57569e208189</t>
-  </si>
-  <si>
-    <t>IP Television</t>
-  </si>
-  <si>
-    <t>IPTV</t>
-  </si>
-  <si>
-    <t>Video streaming and IPTV services.</t>
-  </si>
-  <si>
-    <t>7be2cd28-a794-4f98-b2aa-31ea6c1c6edc</t>
-  </si>
-  <si>
-    <t>PORT_TYPES</t>
-  </si>
-  <si>
-    <t>STM-1 Port</t>
-  </si>
-  <si>
-    <t>STM1</t>
-  </si>
-  <si>
-    <t>155 Mbps optical interface in SDH.</t>
-  </si>
-  <si>
-    <t>3e555c07-b3c9-4c38-ba5a-b5a0476edc55</t>
-  </si>
-  <si>
-    <t>MAINTENANCE_AREA_TYPES</t>
-  </si>
-  <si>
-    <t>Zone</t>
-  </si>
-  <si>
-    <t>ZONE</t>
-  </si>
-  <si>
-    <t>The biggest operational region in BSNL.Example: East Zone, South Zone, North Zone, West Zone.Each Zone contains multiple Circles.</t>
-  </si>
-  <si>
-    <t>a786b612-5407-4517-a320-99a210a1ba13</t>
-  </si>
-  <si>
-    <t>SSA (Secondary Switching Area)</t>
-  </si>
-  <si>
-    <t>SSA</t>
-  </si>
-  <si>
-    <t>District-level telecom maintenance unit.Example: Kolkata SSA, Malda SSA.Each SSA contains multiple Divisions/Sub-Divisions.</t>
-  </si>
-  <si>
-    <t>d2d2f881-26d2-4942-8347-7c0d9b9acbbf</t>
-  </si>
-  <si>
-    <t>Sub-Division</t>
-  </si>
-  <si>
-    <t>SUBDIV</t>
-  </si>
-  <si>
-    <t>Smaller operational units inside an DIVISION for field maintenance.</t>
-  </si>
-  <si>
-    <t>14b6413a-2b8a-4afa-a3a7-6d6a6deb7d43</t>
-  </si>
-  <si>
-    <t>Specialized Centers</t>
-  </si>
-  <si>
-    <t>SPECIALIZED</t>
-  </si>
-  <si>
-    <t>parallel structure.Like NOC (Network Operations Center) – Centralized monitoring hub, MSC (Mobile Switching Center) – For mobile network control, TXM Units – Transmission maintenance teams.</t>
-  </si>
-  <si>
-    <t>72c229f6-2919-41cc-b5cc-911779aa9dc3</t>
-  </si>
-  <si>
-    <t>Circle</t>
-  </si>
-  <si>
-    <t>CIRCLE</t>
-  </si>
-  <si>
-    <t>State/UT-level operational unit.Example: West Bengal Circle, Kerala Circle, Tamil Nadu Circle.Each Circle contains multiple SSAs.</t>
-  </si>
-  <si>
-    <t>6ae7c8f8-7272-4a7f-a7c3-0fa2534bb2eb</t>
-  </si>
-  <si>
-    <t>Division</t>
-  </si>
-  <si>
-    <t>DIV</t>
-  </si>
-  <si>
-    <t>Smaller operational units inside an SSA for field maintenance.Often responsible for a cluster of exchanges or optical routes.</t>
-  </si>
-  <si>
-    <t>e3c44b09-c5d7-457c-8c50-5a06efff1262</t>
-  </si>
-  <si>
-    <t>Unshielded Twisted Pair</t>
-  </si>
-  <si>
-    <t>UTP</t>
-  </si>
-  <si>
-    <t>Copper cable for telecom and data.</t>
-  </si>
-  <si>
-    <t>96a1fb7a-2603-483b-8088-2d95755bda08</t>
-  </si>
-  <si>
-    <t>Microwave Link</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>Wireless line-of-sight telecom link.</t>
-  </si>
-  <si>
-    <t>838ed57e-44bf-44dc-907f-e6d8136c8ab2</t>
-  </si>
-  <si>
-    <t>Radio Frequency Link</t>
-  </si>
-  <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>Wireless RF link for telecom.</t>
-  </si>
-  <si>
-    <t>44069fb0-fbe6-4836-ac87-083ab7f44880</t>
-  </si>
-  <si>
-    <t>Optical Fiber</t>
-  </si>
-  <si>
-    <t>FIBER</t>
-  </si>
-  <si>
-    <t>Fiber optic communication medium.</t>
-  </si>
-  <si>
-    <t>0c188ba2-689a-4bdc-9848-3b1112516f6b</t>
-  </si>
-  <si>
-    <t>Satellite Link</t>
-  </si>
-  <si>
-    <t>SAT</t>
-  </si>
-  <si>
-    <t>Satellite-based telecom connection.</t>
-  </si>
-  <si>
-    <t>daef1801-b782-465e-a973-a9e4358e2e92</t>
-  </si>
-  <si>
-    <t>Very High Frequency Link</t>
-  </si>
-  <si>
-    <t>VHF</t>
-  </si>
-  <si>
-    <t>Special frequency-based communication link.</t>
-  </si>
-  <si>
-    <t>a6e36125-cd80-45a1-99f5-ae4b445a6880</t>
-  </si>
-  <si>
-    <t>NODE_TYPES</t>
-  </si>
-  <si>
-    <t>Telephone Exchange (Exch.)</t>
-  </si>
-  <si>
-    <t>EXCH</t>
-  </si>
-  <si>
-    <t>Central switching facility that connects subscriber lines and trunk links.</t>
-  </si>
-  <si>
-    <t>d749692f-5147-49b5-b1cf-8be443ad2de2</t>
-  </si>
-  <si>
-    <t>BTS (running over radiolink)</t>
-  </si>
-  <si>
-    <t>BTS-RL</t>
-  </si>
-  <si>
-    <t>BTS whose backhaul is microwave / radiolink (non-fiber backhaul).</t>
-  </si>
-  <si>
-    <t>6458a347-e80c-4a62-9357-551487a07e3a</t>
-  </si>
-  <si>
-    <t>Customer Premises</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>Subscriber location (home/business) — customer termination equipment/site.</t>
-  </si>
-  <si>
-    <t>de9ccacb-2080-400e-8c57-2e2cf729f724</t>
-  </si>
-  <si>
-    <t>Gram Panchayat</t>
-  </si>
-  <si>
-    <t>GP</t>
-  </si>
-  <si>
-    <t>Rural/local community aggregation point for last-mile access.</t>
-  </si>
-  <si>
-    <t>ad56dd60-f014-464b-84b9-a090ed843fab</t>
-  </si>
-  <si>
-    <t>Backhaul Hub / Block HQ</t>
-  </si>
-  <si>
-    <t>BHQ</t>
-  </si>
-  <si>
-    <t>Aggregation/backhaul hub or branch headquarters for operations &amp; routing.</t>
-  </si>
-  <si>
-    <t>95f63633-fd4e-4018-b2f0-dea8ad3a8494</t>
-  </si>
-  <si>
-    <t>Metro Access Aggregation Node</t>
-  </si>
-  <si>
-    <t>MAAN</t>
-  </si>
-  <si>
-    <t>Aggregation node used in metro rings before reaching core/backbone.</t>
-  </si>
-  <si>
-    <t>04bb13be-c2c6-47dd-a5f3-013f37c08719</t>
-  </si>
-  <si>
-    <t>Fiber Distribution Hub (FDH)</t>
-  </si>
-  <si>
-    <t>FDH</t>
-  </si>
-  <si>
-    <t>Street/field cabinet that distributes fibers to subscribers (PON splitters).</t>
-  </si>
-  <si>
-    <t>96ff54ab-c96f-470e-92d6-2f5780438e81</t>
-  </si>
-  <si>
-    <t>Distribution Point / Street Cabinet</t>
-  </si>
-  <si>
-    <t>DP</t>
-  </si>
-  <si>
-    <t>Local distribution cabinet connecting feeder to drop cables.</t>
-  </si>
-  <si>
-    <t>20062f91-1de9-43a9-aaae-a9eee082d0e2</t>
-  </si>
-  <si>
-    <t>multiplexer</t>
-  </si>
-  <si>
-    <t>MUX</t>
-  </si>
-  <si>
-    <t>Splits a multiplexed signal into its components.</t>
-  </si>
-  <si>
-    <t>5207d6b0-10ff-4c8d-b5e0-0ce9cc2e5230</t>
-  </si>
-  <si>
-    <t>Compact Passive Access Node</t>
-  </si>
-  <si>
-    <t>CPAN Node</t>
-  </si>
-  <si>
-    <t>Compact Passive Access Node (used in access networks for broadband/FTTH aggregation)</t>
-  </si>
-  <si>
-    <t>f6cdce1d-fe11-4d40-8866-c509307f6150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add-Drop Multiplexer </t>
-  </si>
-  <si>
-    <t>ADM Node</t>
-  </si>
-  <si>
-    <t>Intermediate add/drop site</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>c3c10305-215a-4efa-8770-2d8846f4e888</t>
-  </si>
-  <si>
-    <t>Digital Cross-Connect</t>
-  </si>
-  <si>
-    <t>DXC Node</t>
-  </si>
-  <si>
-    <t>Junction site with large cross-connections</t>
-  </si>
-  <si>
-    <t>0966c005-3306-4a7a-9933-45dd1d8e91b4</t>
-  </si>
-  <si>
-    <t>Optical Amplifier Node</t>
-  </si>
-  <si>
-    <t>OAN Node</t>
-  </si>
-  <si>
-    <t>If the SDH shelf is paired with amplifier equipment for boosting signal only.</t>
-  </si>
-  <si>
-    <t>df4fb383-2fcf-4171-9571-0566863778af</t>
-  </si>
-  <si>
-    <t>Regenerator</t>
-  </si>
-  <si>
-    <t>Regenerator Node</t>
-  </si>
-  <si>
-    <t>For old SDH without optical amplification.</t>
-  </si>
-  <si>
-    <t>aad2da41-7496-4048-a004-a6958ec4ff79</t>
-  </si>
-  <si>
-    <t>OFC_TYPES</t>
-  </si>
-  <si>
-    <t>6F Unarmored</t>
-  </si>
-  <si>
-    <t>6F-U</t>
-  </si>
-  <si>
-    <t>Six-core unarmored optical fiber cable (for ducts/aerial).</t>
-  </si>
-  <si>
-    <t>e137552b-9ae2-442b-bcc2-c435d7d64ba1</t>
-  </si>
-  <si>
-    <t>12F Unarmored</t>
-  </si>
-  <si>
-    <t>12F-U</t>
-  </si>
-  <si>
-    <t>Twelve-core unarmored optical fiber cable.</t>
-  </si>
-  <si>
-    <t>f45e7454-2b12-4607-886b-f463b56fab98</t>
-  </si>
-  <si>
-    <t>Base Transceiver Station</t>
-  </si>
-  <si>
-    <t>BTS</t>
-  </si>
-  <si>
-    <t>Mobile radio site / cell tower serving a cell area.</t>
-  </si>
-  <si>
     <t>84e8ba18-eedc-4eae-aaa4-e6a82400849d</t>
   </si>
   <si>
@@ -1136,6 +1136,30 @@
   </si>
   <si>
     <t>Access-level branching for FTTH</t>
+  </si>
+  <si>
+    <t>97102a3f-9fe3-40cd-84fe-8720d635e081</t>
+  </si>
+  <si>
+    <t>4F Armored</t>
+  </si>
+  <si>
+    <t>4F-A</t>
+  </si>
+  <si>
+    <t>Four-core steel-armored optical fiber cable for underground routes.</t>
+  </si>
+  <si>
+    <t>aea6a03e-cf73-45a4-99e1-317f8f4cfc84</t>
+  </si>
+  <si>
+    <t>4F Unarmored</t>
+  </si>
+  <si>
+    <t>4F-U</t>
+  </si>
+  <si>
+    <t>Four-core unarmored optical fiber cable (for ducts/aerial).</t>
   </si>
 </sst>
 </file>
@@ -1576,7 +1600,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1824,16 +1848,16 @@
         <v>39</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>15</v>
@@ -1853,19 +1877,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>15</v>
@@ -1885,19 +1909,19 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>15</v>
@@ -1917,10 +1941,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>54</v>
@@ -1952,7 +1976,7 @@
         <v>57</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>58</v>
@@ -1984,7 +2008,7 @@
         <v>61</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>62</v>
@@ -2016,7 +2040,7 @@
         <v>65</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>66</v>
@@ -2048,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>70</v>
@@ -2080,7 +2104,7 @@
         <v>73</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>74</v>
@@ -2240,16 +2264,16 @@
         <v>93</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>15</v>
@@ -2269,19 +2293,19 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>15</v>
@@ -2301,10 +2325,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>103</v>
@@ -2336,7 +2360,7 @@
         <v>106</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>107</v>
@@ -2368,7 +2392,7 @@
         <v>110</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>111</v>
@@ -2400,7 +2424,7 @@
         <v>114</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>115</v>
@@ -2432,7 +2456,7 @@
         <v>118</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>119</v>
@@ -2464,7 +2488,7 @@
         <v>122</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>123</v>
@@ -2496,7 +2520,7 @@
         <v>126</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>127</v>
@@ -2528,7 +2552,7 @@
         <v>130</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>131</v>
@@ -2560,7 +2584,7 @@
         <v>134</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>135</v>
@@ -2572,7 +2596,7 @@
         <v>137</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>16</v>
@@ -2584,28 +2608,28 @@
         <v>45879</v>
       </c>
       <c r="J31" s="8">
-        <v>45881</v>
+        <v>45879</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="G32" s="4" t="s">
         <v>16</v>
       </c>
@@ -2616,27 +2640,27 @@
         <v>45879</v>
       </c>
       <c r="J32" s="5">
-        <v>45881</v>
+        <v>45879</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>16</v>
@@ -2656,7 +2680,7 @@
         <v>147</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>148</v>
@@ -2668,7 +2692,7 @@
         <v>150</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>16</v>
@@ -2688,19 +2712,19 @@
         <v>151</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>16</v>
@@ -2712,27 +2736,27 @@
         <v>45879</v>
       </c>
       <c r="J35" s="8">
-        <v>45879</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>16</v>
@@ -2744,15 +2768,15 @@
         <v>45879</v>
       </c>
       <c r="J36" s="5">
-        <v>45879</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>161</v>
@@ -2776,7 +2800,7 @@
         <v>45879</v>
       </c>
       <c r="J37" s="8">
-        <v>45881</v>
+        <v>45889.16384541667</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2784,7 +2808,7 @@
         <v>164</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>165</v>
@@ -2808,7 +2832,7 @@
         <v>45879</v>
       </c>
       <c r="J38" s="5">
-        <v>45881</v>
+        <v>45889.62104576389</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2816,7 +2840,7 @@
         <v>168</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>169</v>
@@ -2840,7 +2864,7 @@
         <v>45879</v>
       </c>
       <c r="J39" s="8">
-        <v>45889.16384541667</v>
+        <v>45889.62212079861</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2848,7 +2872,7 @@
         <v>172</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>173</v>
@@ -2880,7 +2904,7 @@
         <v>176</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>177</v>
@@ -2912,7 +2936,7 @@
         <v>180</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>181</v>
@@ -2944,7 +2968,7 @@
         <v>184</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>185</v>
@@ -2976,7 +3000,7 @@
         <v>188</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>189</v>
@@ -3008,7 +3032,7 @@
         <v>192</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>193</v>
@@ -3040,7 +3064,7 @@
         <v>196</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>197</v>
@@ -3072,7 +3096,7 @@
         <v>200</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>201</v>
@@ -3104,7 +3128,7 @@
         <v>204</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>205</v>
@@ -3136,7 +3160,7 @@
         <v>208</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>209</v>
@@ -3168,7 +3192,7 @@
         <v>212</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>213</v>
@@ -3200,7 +3224,7 @@
         <v>216</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>217</v>
@@ -3232,7 +3256,7 @@
         <v>220</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>221</v>
@@ -3264,7 +3288,7 @@
         <v>224</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>225</v>
@@ -3296,7 +3320,7 @@
         <v>228</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>229</v>
@@ -3328,7 +3352,7 @@
         <v>232</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>233</v>
@@ -3360,7 +3384,7 @@
         <v>236</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>237</v>
@@ -3392,7 +3416,7 @@
         <v>240</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>241</v>
@@ -4352,7 +4376,7 @@
         <v>363</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>364</v>
@@ -4384,7 +4408,7 @@
         <v>367</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>368</v>
@@ -4412,35 +4436,99 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="B89" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C89" s="10" t="s">
+      <c r="B89" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D89" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="E89" s="10" t="s">
+      <c r="E89" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="F89" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H89" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I89" s="11">
+      <c r="F89" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I89" s="8">
         <v>45887.69429528935</v>
       </c>
-      <c r="J89" s="11">
+      <c r="J89" s="8">
         <v>45887.69429528935</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" s="5">
+        <v>45889.622873263885</v>
+      </c>
+      <c r="J90" s="5">
+        <v>45889.622873263885</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I91" s="11">
+        <v>45889.62343733796</v>
+      </c>
+      <c r="J91" s="11">
+        <v>45889.62343733796</v>
       </c>
     </row>
   </sheetData>
